--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value254.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value254.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.033799977843874</v>
+        <v>1.25067138671875</v>
       </c>
       <c r="B1">
-        <v>1.098272490488564</v>
+        <v>2.194236278533936</v>
       </c>
       <c r="C1">
-        <v>1.248525312179723</v>
+        <v>2.772485256195068</v>
       </c>
       <c r="D1">
-        <v>1.961549914071631</v>
+        <v>3.222027063369751</v>
       </c>
       <c r="E1">
-        <v>3.697133650143827</v>
+        <v>2.272112369537354</v>
       </c>
     </row>
   </sheetData>
